--- a/data/income_statement/2digits/size/94_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/94_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>94-Activities of membership organizations</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>94-Activities of membership organizations</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>32404.55557</v>
+        <v>34990.57069</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>56078.24889</v>
+        <v>56853.55349000001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>190006.4164</v>
+        <v>197605.55889</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>323742.37149</v>
+        <v>339041.76004</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>329284.6264600001</v>
+        <v>350458.67891</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>33398.03879</v>
+        <v>44560.92637000001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>24924.03407</v>
+        <v>37272.18465</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>28733.955</v>
+        <v>39534.12921</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>39613.01947</v>
+        <v>51222.58928</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>60796.63351</v>
+        <v>60900.96413</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>60716.39224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>70786.43509999999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>47689.482</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>28975.70713</v>
+        <v>31450.39129</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>45984.79551</v>
+        <v>46440.07751</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>179212.65127</v>
+        <v>186446.33729</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>313396.14946</v>
+        <v>327825.63594</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>315635.81366</v>
+        <v>335862.35706</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>25261.61981</v>
+        <v>33656.12522</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>18717.82251</v>
+        <v>29026.27681</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>22943.22876</v>
+        <v>31192.63198</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>33036.75276</v>
+        <v>42548.95367</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>50321.44256</v>
+        <v>50425.77318</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>49672.67301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>55553.45506</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>40445.416</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>14.44579</v>
@@ -1043,7 +959,7 @@
         <v>1285.38013</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>410.058</v>
+        <v>727.71299</v>
       </c>
       <c r="I7" s="48" t="n">
         <v>24.8</v>
@@ -1052,7 +968,7 @@
         <v>97.98250999999999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>66.67547</v>
+        <v>92.01636999999999</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>536.87816</v>
@@ -1060,128 +976,148 @@
       <c r="M7" s="48" t="n">
         <v>456.49298</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>3414.40265</v>
+        <v>3525.73361</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>9858.501900000001</v>
+        <v>10178.5245</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>9859.346240000001</v>
+        <v>10224.80271</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>10278.39817</v>
+        <v>11148.30024</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>12363.43267</v>
+        <v>13310.94172</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>7726.360979999999</v>
+        <v>10177.08816</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>6181.41156</v>
+        <v>8221.107840000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>5692.74373</v>
+        <v>8243.514719999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>6509.591240000001</v>
+        <v>8581.61924</v>
       </c>
       <c r="L8" s="48" t="n">
         <v>9938.31279</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>10587.22625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>14776.48706</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>7244.066</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>231.49151</v>
+        <v>231.74575</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>56.153</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>77.56506</v>
+        <v>92.65070999999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>127.81804</v>
+        <v>141.13893</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>226.88337</v>
+        <v>232.50684</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>14.09476</v>
+        <v>14.22951</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>3.7348</v>
+        <v>5.18214</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>6.396229999999999</v>
+        <v>7.28923</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>35.9248</v>
+        <v>69.15922999999999</v>
       </c>
       <c r="L9" s="47" t="n">
         <v>118.48203</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>682.1845500000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>682.60839</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>34.367</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>32.89528</v>
+        <v>33.14952</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>8.87786</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>48.91674</v>
+        <v>63.12343</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>73.83608</v>
+        <v>87.15697</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>146.97082</v>
+        <v>152.59429</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>14.09476</v>
+        <v>14.22951</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>3.7348</v>
+        <v>5.18214</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>6.396229999999999</v>
+        <v>7.28923</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>35.3821</v>
+        <v>55.86653</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>117.41061</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>677.75997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>678.1838100000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>26.275</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0</v>
@@ -1190,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>9.799280000000001</v>
+        <v>10.12824</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>45.11233</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>4.42458</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>8.092000000000001</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>198.59623</v>
@@ -1229,7 +1170,7 @@
         <v>47.27514</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>18.84904</v>
+        <v>19.39904</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>8.869629999999999</v>
@@ -1247,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>0.5427000000000001</v>
+        <v>13.2927</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>0</v>
@@ -1255,89 +1196,104 @@
       <c r="M12" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>32173.06406</v>
+        <v>34758.82494</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>56022.09589</v>
+        <v>56797.40049</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>189928.85134</v>
+        <v>197512.90818</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>323614.55345</v>
+        <v>338900.62111</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>329057.7430899999</v>
+        <v>350226.17207</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>33383.94403</v>
+        <v>44546.69686</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>24920.29927</v>
+        <v>37267.00251</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>28727.55877</v>
+        <v>39526.83998</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>39577.09467</v>
+        <v>51153.43005</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>60678.15147999999</v>
+        <v>60782.4821</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>60034.20769</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>70103.82670999999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>47655.115</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>24300.12285</v>
+        <v>26166.32574</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>40792.71872</v>
+        <v>41247.21864</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>161860.56547</v>
+        <v>168418.50636</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>284052.1618999999</v>
+        <v>296879.26673</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>287833.42145</v>
+        <v>305880.19367</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>21079.77535</v>
+        <v>28336.39858</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>15277.85496</v>
+        <v>22641.4707</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>18281.8262</v>
+        <v>25158.4485</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>28938.27592</v>
+        <v>36415.19415</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>43345.30158</v>
+        <v>43405.73615999999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>39934.29228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>48302.8317</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>34130.132</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>248.00779</v>
@@ -1346,13 +1302,13 @@
         <v>264.26321</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>2607.06226</v>
+        <v>3176.36634</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1667.64814</v>
+        <v>2311.46281</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3994.7049</v>
+        <v>4657.49706</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>256.39809</v>
@@ -1372,89 +1328,104 @@
       <c r="M15" s="48" t="n">
         <v>1502.61234</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>0.911</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>20523.63236</v>
+        <v>22192.13967</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>34975.24151</v>
+        <v>35223.7555</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>146877.09754</v>
+        <v>152215.31847</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>262262.01856</v>
+        <v>272889.75376</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>261459.5625</v>
+        <v>277410.0212200001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>16046.4258</v>
+        <v>22696.41841</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>11369.95566</v>
+        <v>17685.50656</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>15218.53806</v>
+        <v>20677.77243</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>24721.92112</v>
+        <v>31126.99898</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>35807.20727000001</v>
+        <v>35867.64185</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>34385.12929</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>39667.81404</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>32223.461</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>2512.37258</v>
+        <v>2710.06816</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>4300.01912</v>
+        <v>4506.00505</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>9665.626189999999</v>
+        <v>10316.04207</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>17177.33012</v>
+        <v>18732.88508</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>20078.90117</v>
+        <v>21512.42251</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>4753.97892</v>
+        <v>5360.60954</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3629.72208</v>
+        <v>4677.78692</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3044.58733</v>
+        <v>4455.05526</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>4189.12635</v>
+        <v>5260.966719999999</v>
       </c>
       <c r="L17" s="48" t="n">
         <v>5660.242</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>4046.55065</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7132.40532</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1900.96</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1016.11012</v>
@@ -1478,7 +1449,7 @@
         <v>36.25949</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>6</v>
+        <v>12.92</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>0</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>7872.94121</v>
+        <v>8592.499199999998</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>15229.37717</v>
+        <v>15550.18185</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>28068.28587</v>
+        <v>29094.40182</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>39562.39155</v>
+        <v>42021.35438</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>41224.32164</v>
+        <v>44345.9784</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>12304.16868</v>
+        <v>16210.29828</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>9642.444310000001</v>
+        <v>14625.53181</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>10445.73257</v>
+        <v>14368.39148</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>10638.81875</v>
+        <v>14738.2359</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>17332.8499</v>
+        <v>17376.74594</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>20099.91541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>21800.99501</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>13524.983</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>12362.17706</v>
+        <v>14024.3594</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>20157.61315</v>
+        <v>21009.41545</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>32489.88715999999</v>
+        <v>34910.26595</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>44585.8394</v>
+        <v>49696.65943</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>45206.39474</v>
+        <v>50961.8392</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>16097.52248</v>
+        <v>22167.35552</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>13457.11177</v>
+        <v>22179.01372</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>13457.72236</v>
+        <v>20968.33078</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>17728.53146</v>
+        <v>26533.20037</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>25654.25085</v>
+        <v>25685.03237</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>26805.18682</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>28776.66107</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>19889.991</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>60.40293</v>
@@ -1580,7 +1566,7 @@
         <v>26.7121</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>840.43265</v>
+        <v>844.6458299999999</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>499.4123</v>
@@ -1606,38 +1592,43 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>658.9506799999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>884.10099</v>
+        <v>884.15098</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>3028.10274</v>
+        <v>3149.65521</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>5594.324509999999</v>
+        <v>5793.074560000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>5663.88544</v>
+        <v>5978.82438</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>650.1599</v>
+        <v>818.6535799999999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>340.24984</v>
+        <v>623.25688</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>401.15359</v>
+        <v>688.0410000000001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>551.4360300000001</v>
+        <v>915.81753</v>
       </c>
       <c r="L22" s="48" t="n">
         <v>929.76041</v>
@@ -1645,128 +1636,148 @@
       <c r="M22" s="48" t="n">
         <v>1539.36722</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="48" t="n">
+        <v>639.01</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>11642.82345</v>
+        <v>13305.00579</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>19246.80006</v>
+        <v>20098.55237</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>28621.35177</v>
+        <v>30915.96491</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>38492.10259</v>
+        <v>43404.17257</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>39276.74329999999</v>
+        <v>44717.24882</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>15447.36258</v>
+        <v>21348.70194</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>13116.86193</v>
+        <v>21555.75684</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>13056.56877</v>
+        <v>20280.28978</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>17177.09543</v>
+        <v>25617.38284</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>24718.49044</v>
+        <v>24749.27196</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>25265.8196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>27237.29385</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>19250.981</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-4489.235850000001</v>
+        <v>-5431.8602</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-4928.23598</v>
+        <v>-5459.2336</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-4421.601289999999</v>
+        <v>-5815.864130000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-5023.44785</v>
+        <v>-7675.30505</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-3982.0731</v>
+        <v>-6615.8608</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-3793.3538</v>
+        <v>-5957.057239999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-3814.66746</v>
+        <v>-7553.48191</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-3011.98979</v>
+        <v>-6599.9393</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-7089.71271</v>
+        <v>-11794.96447</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-8321.400949999999</v>
+        <v>-8308.28643</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-6705.27141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-6975.66606</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-6365.008</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1830.74253</v>
+        <v>1954.20505</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2342.50211</v>
+        <v>2433.97384</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>4014.597940000001</v>
+        <v>4464.73193</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>7249.68322</v>
+        <v>8113.87011</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4065.86408</v>
+        <v>7567.14494</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2712.05604</v>
+        <v>9154.02859</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4420.92163</v>
+        <v>6046.61547</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2962.9622</v>
+        <v>5120.61978</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>4059.30355</v>
+        <v>7558.9404</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>5391.94512</v>
+        <v>5394.75792</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>4621.89549</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>4717.0964</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2611.017</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1787,13 +1798,13 @@
         <v>16.938</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>24.396</v>
+        <v>52.80081</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>320.98737</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0</v>
+        <v>339.79473</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>330.64241</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>242.28553</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>273.082</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>94.58275</v>
@@ -1840,77 +1856,87 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>309.85413</v>
+        <v>386.21498</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>229.45474</v>
+        <v>300.01671</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>205.24837</v>
+        <v>245.20337</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>403.24043</v>
+        <v>631.3178600000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>320.96621</v>
+        <v>460.25699</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>175.76529</v>
+        <v>295.77957</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>195.53986</v>
+        <v>452.49252</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>224.61697</v>
+        <v>430.95153</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>167.75418</v>
+        <v>552.2064</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>597.3633199999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>689.33497</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>784.1239499999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>276.168</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>10.30833</v>
+        <v>10.43614</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>70.51803</v>
+        <v>70.57437</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>154.48146</v>
+        <v>165.4139</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>92.92613</v>
+        <v>93.00926000000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>132.60188</v>
+        <v>140.19857</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>0.35916</v>
+        <v>0.41514</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1.62526</v>
+        <v>1.68904</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>9.116299999999999</v>
+        <v>9.192969999999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>6.64855</v>
+        <v>63.26092</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>0.76293</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>68.48884</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>303.14628</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>320.451</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>6.08461</v>
@@ -1973,10 +2009,10 @@
         <v>2.44842</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>13.33033</v>
+        <v>23.85591</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>14.76354</v>
+        <v>15.72981</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>1.47219</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>0.49218</v>
@@ -2012,7 +2053,7 @@
         <v>22.92309</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>10.86394</v>
+        <v>12.26028</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>13.84533</v>
@@ -2027,7 +2068,7 @@
         <v>34.56814</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>41.86709</v>
+        <v>47.24997</v>
       </c>
       <c r="L32" s="48" t="n">
         <v>161.79105</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>71.05134</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>19.438</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,131 +2164,151 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1340.93169</v>
+        <v>1387.90555</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1891.64098</v>
+        <v>1912.4944</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>3396.5813</v>
+        <v>3795.82785</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>6629.914690000001</v>
+        <v>7254.0191</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>3545.14411</v>
+        <v>6898.57123</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2501.0112</v>
+        <v>8822.913490000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>4172.25964</v>
+        <v>5512.532230000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2694.65732</v>
+        <v>4324.9163</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3832.7669</v>
+        <v>6546.16155</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>4301.227089999999</v>
+        <v>4304.03989</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3316.07737</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3316.4893</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1721.803</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>291.2411</v>
+        <v>291.62339</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>133.25269</v>
+        <v>136.89745</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1590.89181</v>
+        <v>1613.20723</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3240.71207</v>
+        <v>3350.46591</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>552.19875</v>
+        <v>3102.03977</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1001.82514</v>
+        <v>6131.51593</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2768.01577</v>
+        <v>3027.86975</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1342.97827</v>
+        <v>1475.5436</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>111.13464</v>
+        <v>255.03159</v>
       </c>
       <c r="L36" s="47" t="n">
         <v>554.13136</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>638.6591500000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>370.69474</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>403.672</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>4.394399999999999</v>
+        <v>4.772489999999999</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>6.701179999999999</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>7.61246</v>
+        <v>7.61946</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>20.84071</v>
+        <v>22.28002</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>9.125909999999999</v>
+        <v>28.62129</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>12.40268</v>
+        <v>13.27799</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>16.87372</v>
+        <v>17.38545</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1.08779</v>
+        <v>2.1578</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2.93558</v>
+        <v>3.21871</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>6.20281</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>4.56872</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>4.73231</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2.837</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>14.38</v>
+        <v>14.3842</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>0</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>7.11216</v>
@@ -2339,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1.25837</v>
+        <v>1.63734</v>
       </c>
       <c r="L40" s="48" t="n">
         <v>70.75345</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>2.56987</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>41.337</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.8569500000000001</v>
@@ -2366,13 +2452,13 @@
         <v>58.66961</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>0</v>
+        <v>38.02649</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>0</v>
+        <v>20.01912</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>264.49759</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>120.22628</v>
+        <v>123.87104</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1503.57507</v>
+        <v>1525.88349</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3134.21935</v>
+        <v>3242.53388</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>513.73976</v>
+        <v>3006.05891</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>987.36452</v>
+        <v>6116.18</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2748.66493</v>
+        <v>2987.98806</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1336.36752</v>
+        <v>1467.86284</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>106.94069</v>
+        <v>250.17554</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>477.1751</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>631.52056</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>363.39256</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>359.498</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>132.11031</v>
+        <v>133.9628</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>109.12244</v>
+        <v>114.03153</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>331.60501</v>
+        <v>526.0761600000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>495.31737</v>
+        <v>773.57412</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>597.5670700000001</v>
+        <v>683.0940700000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>56.22235</v>
+        <v>63.06324</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>99.56012</v>
+        <v>111.39516</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>88.30201</v>
+        <v>99.52306</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>112.45411</v>
+        <v>188.81907</v>
       </c>
       <c r="L44" s="47" t="n">
         <v>315.29188</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>255.29634</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>353.96991</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>103.133</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>132.11031</v>
+        <v>133.9628</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>108.537</v>
+        <v>113.44609</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>236.18455</v>
+        <v>282.56476</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>453.0168899999999</v>
+        <v>531.7580899999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>485.83405</v>
+        <v>569.12923</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>55.24172</v>
+        <v>62.08261</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>70.45148999999999</v>
+        <v>82.28653</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>63.71053</v>
+        <v>74.93158</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>96.63831</v>
+        <v>173.00327</v>
       </c>
       <c r="L45" s="48" t="n">
         <v>301.4797</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>249.46789</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>348.14146</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>103.133</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2555,13 +2666,13 @@
         <v>0.5854400000000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>95.42046000000001</v>
+        <v>243.5114</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>42.30048</v>
+        <v>241.81603</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>111.73302</v>
+        <v>113.96484</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>0.98063</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>5.82845</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-3081.84473</v>
+        <v>-3903.24134</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-2828.109</v>
+        <v>-3276.18874</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-2329.50017</v>
+        <v>-3490.41559</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-1509.79407</v>
+        <v>-3685.47497</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-1065.97484</v>
+        <v>-2833.8497</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-2139.34525</v>
+        <v>-2997.60782</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-2261.32172</v>
+        <v>-4646.13135</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-1480.30787</v>
+        <v>-3054.38618</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-3253.99791</v>
+        <v>-4679.87473</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-3798.87907</v>
+        <v>-3782.95175</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-2977.33141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-2983.23431</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-4260.796</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>177.11206</v>
+        <v>273.446</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>284.57158</v>
+        <v>463.14111</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1032.14128</v>
+        <v>1451.45808</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1185.24143</v>
+        <v>1456.47292</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>2034.0945</v>
+        <v>2368.61536</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>216.68424</v>
+        <v>398.2976</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>208.84809</v>
+        <v>1209.94446</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>783.55011</v>
+        <v>897.7021399999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1356.30068</v>
+        <v>1680.0809</v>
       </c>
       <c r="L48" s="47" t="n">
         <v>1515.16556</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1215.54575</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1415.87398</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>294.117</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>48.9558</v>
@@ -2675,16 +2801,16 @@
         <v>2.14336</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>10.0895</v>
+        <v>10.26354</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>30.71901</v>
+        <v>50.94471</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>7.779199999999999</v>
+        <v>8.778870000000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>0.68688</v>
+        <v>644.95024</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>0</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>128.15626</v>
+        <v>224.4902</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>280.22032</v>
+        <v>458.78985</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1029.99792</v>
+        <v>1449.31472</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1175.15193</v>
+        <v>1446.20938</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>2003.37549</v>
+        <v>2317.67065</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>208.90504</v>
+        <v>389.51873</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>208.16121</v>
+        <v>564.9942199999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>783.55011</v>
+        <v>897.7021399999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1117.46158</v>
+        <v>1441.2418</v>
       </c>
       <c r="L50" s="48" t="n">
         <v>1515.16556</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1215.54575</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1415.87398</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>294.117</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>290.585</v>
+        <v>295.41427</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>369.79125</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>561.2738499999999</v>
+        <v>618.4449000000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1400.9379</v>
+        <v>1631.58086</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1197.68617</v>
+        <v>1430.74871</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>169.66708</v>
+        <v>237.33316</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>209.68031</v>
+        <v>549.2990600000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>124.84254</v>
+        <v>229.63605</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>300.37573</v>
+        <v>461.91097</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>493.08291</v>
+        <v>493.89301</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>539.8830799999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>556.6944100000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>89.69199999999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>7.48555</v>
@@ -2789,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>4.618</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>125.94754</v>
@@ -2831,22 +2977,22 @@
         <v>166.2729</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>794.68544</v>
+        <v>839.53263</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>509.40749</v>
+        <v>632.3098199999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>7.85246</v>
+        <v>9.94699</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>6.27053</v>
+        <v>94.76788999999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>0.9255800000000001</v>
+        <v>24.92558</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>15.32662</v>
+        <v>27.32662</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>211.76568</v>
@@ -2854,89 +3000,104 @@
       <c r="M53" s="48" t="n">
         <v>9.472719999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>25.697</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>157.15191</v>
+        <v>161.98118</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>354.2081700000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>395.00095</v>
+        <v>445.172</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>601.63446</v>
+        <v>787.4302299999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>688.27868</v>
+        <v>798.43889</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>161.81462</v>
+        <v>227.38617</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>203.40978</v>
+        <v>454.53117</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>123.91696</v>
+        <v>204.71047</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>285.04911</v>
+        <v>434.58435</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>281.31723</v>
+        <v>282.12733</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>530.41036</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>547.22169</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>63.995</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-3195.31767</v>
+        <v>-3925.20961</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-2913.32867</v>
+        <v>-3182.83888</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-1858.63274</v>
+        <v>-2657.40241</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-1725.49054</v>
+        <v>-3860.58291</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-229.56651</v>
+        <v>-1895.98305</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-2092.32809</v>
+        <v>-2836.64338</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-2262.15394</v>
+        <v>-3985.48595</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-821.6003000000001</v>
+        <v>-2386.32009</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-2198.07296</v>
+        <v>-3461.7048</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-2776.79642</v>
+        <v>-2761.6792</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-2301.66874</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-2124.05474</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-4056.371</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>130.57844</v>
@@ -2945,73 +3106,81 @@
         <v>190.9135</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>342.9637</v>
+        <v>356.16076</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>593.4129399999999</v>
+        <v>605.4796899999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>540.06738</v>
+        <v>556.21464</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>231.32158</v>
+        <v>241.78662</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>152.25965</v>
+        <v>217.42173</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>53.1587</v>
+        <v>117.52796</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>103.90613</v>
+        <v>185.30532</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>258.37536</v>
+        <v>262.84972</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>244.59089</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>256.05365</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>113.193</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-3325.89611</v>
+        <v>-4055.78805</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-3104.24217</v>
+        <v>-3373.75238</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-2201.596439999999</v>
+        <v>-3013.56317</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-2318.903479999999</v>
+        <v>-4466.062599999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-769.6338900000002</v>
+        <v>-2452.19769</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-2323.64967</v>
+        <v>-3078.43</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-2414.41359</v>
+        <v>-4202.90768</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-874.759</v>
+        <v>-2503.84805</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-2301.97909</v>
+        <v>-3647.01012</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-3035.17178</v>
+        <v>-3024.52892</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-2546.25963</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-2380.10839</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-4169.564</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>732</v>
+        <v>769</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1041</v>
+        <v>1112</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>941</v>
+        <v>1023</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>182</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>